--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet name="企画内容" sheetId="1" r:id="rId1"/>
     <sheet name="画面仕様" sheetId="2" r:id="rId2"/>
-    <sheet name="基本仕様" sheetId="3" r:id="rId3"/>
-    <sheet name="キャラ仕様" sheetId="6" r:id="rId4"/>
-    <sheet name="噂が広がるパターン" sheetId="7" r:id="rId5"/>
-    <sheet name="ステージ仕様" sheetId="8" r:id="rId6"/>
+    <sheet name="基本仕様" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="基本仕様　" sheetId="9" r:id="rId4"/>
+    <sheet name="噂が広がるパターン" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="ステージ仕様" sheetId="8" state="hidden" r:id="rId6"/>
     <sheet name="更新箇所" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>◇画面仕様◇</t>
     <rPh sb="1" eb="3">
@@ -858,147 +858,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>◇キャラ仕様◇</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○クリックされたキャラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>クリックされたキャラは種類に関係なく白色のエフェクトを出す。</t>
-    </r>
-    <rPh sb="12" eb="14">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シロイロ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○キャラの種類</t>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・男子学生</t>
-    <rPh sb="2" eb="4">
-      <t>ダンシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・女子学生</t>
-    <rPh sb="2" eb="4">
-      <t>ジョシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>キャラ仕様を追加</t>
     <rPh sb="3" eb="5">
       <t>シヨウ</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>青色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>のエフェクトを出す。</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>アオイロ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>赤色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>のエフェクトを出す。</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>アカイロ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1421,12 +1286,674 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>●ゲーム開始時の残り回数は３回に設定。</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ仕様にゲーム開始時の残り回数を追加</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・キャラをクリック可能な時と不可能な時について。</t>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>フカノウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●Ｂのキャラをクリックして噂が伝達出来た時</t>
+    <rPh sb="13" eb="14">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●ＡもしくはＣのキャラをクリックして噂が伝達出来なかった時</t>
+    <rPh sb="18" eb="19">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>噂を流したＢのキャラは再度クリックする事が出来ない。</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ＡＣのキャラ共に再度クリックする事が出来る。</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→クリック出来るキャラ出来ないキャラ詳細はこちら</t>
+    <rPh sb="5" eb="7">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本仕様にキャラのクリックの可否の条件を追加</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ仕様に追記</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○ゲームイメージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○ステージには予めキャラが配置されている。</t>
+    <rPh sb="7" eb="8">
+      <t>アラカジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　配置されているキャラをプレイヤーがクリックする事は出来ない。</t>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○プレイヤーの配置</t>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●プレイヤーはキャラを任意の場所に配置する事が出来る。</t>
+    <rPh sb="11" eb="13">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●プレイヤーが配置できるキャラは３種類いる。</t>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　・１、配置すると噂を円形に流すキャラ</t>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・配置すると３秒間噂を流す、その際吹き出しが表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　３秒経つと配置したキャラは消える。</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　・２、配置すると噂を止めるキャラ</t>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・噂を流そうとしてるキャラの範囲に予め配置しておく。</t>
+    <rPh sb="1" eb="2">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アラカジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置したキャラに噂が伝達すると噂を流したキャラの範囲内にいる他のキャラには噂が伝達しなくなる。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>デンタツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　配置したキャラに噂が伝達すると吹き出しが表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・出現している時間は５秒。</t>
+    <rPh sb="1" eb="3">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　５秒経つと配置したキャラは消える。</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　・３、配置すると伝達した噂を広範囲に拡散するキャラ</t>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>コウハンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・配置すると自身に伝達された噂を広範囲に拡散する。（通常の1.5倍）</t>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>コウハンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクサン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　１とは違い自らは噂を流さない。</t>
+    <rPh sb="4" eb="5">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミズカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●配置の手順</t>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・任意の数字キーを押すと半透明のキャラを持った状態になる。</t>
+    <rPh sb="2" eb="4">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハントウメイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・任意の場所でマウスを左クリックするとその場所に持っていたキャラが配置される。</t>
+    <rPh sb="2" eb="4">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　範囲はキャラ３人分。</t>
+    <rPh sb="1" eb="3">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書を整理</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　 数字キーを押す以外にもボタンを直接マウスで押す事でも選択する事が可能。</t>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>それぞれ操作はキーボードの１，２，３に対応している。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　噂が伝達されてからその範囲内に配置しても効果はない。</t>
+    <rPh sb="1" eb="2">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,6 +2009,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1500,12 +2043,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,8 +2070,15 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1598,13 +2151,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>13546</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>514772</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1623,8 +2176,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="769620"/>
-          <a:ext cx="4890346" cy="2750820"/>
+          <a:off x="0" y="1775460"/>
+          <a:ext cx="5391572" cy="3032760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1739,7 +2292,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
@@ -1756,8 +2309,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3307080" y="3467100"/>
-          <a:ext cx="2179320" cy="0"/>
+          <a:off x="3604260" y="3970020"/>
+          <a:ext cx="1882140" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1945,7 +2498,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -1962,8 +2515,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1242060" y="3825240"/>
-          <a:ext cx="4244340" cy="0"/>
+          <a:off x="1318260" y="4328160"/>
+          <a:ext cx="4168140" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2353,6 +2906,256 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5173980" y="1264920"/>
+          <a:ext cx="0" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1684020" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4389120" y="1173480"/>
+          <a:ext cx="1684020" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリア条件と達成までの数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="632460" y="4701540"/>
+          <a:ext cx="601980" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1242060" y="4975860"/>
+          <a:ext cx="4251960" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1257300" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5181600"/>
+          <a:ext cx="1257300" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラ配置のボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2600,13 +3403,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>316829</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2894,13 +3697,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>459106</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2938,13 +3741,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>116206</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2982,7 +3785,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="594360" cy="325730"/>
@@ -3034,7 +3837,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="594360" cy="325730"/>
@@ -3082,6 +3885,206 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>144332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9486900"/>
+          <a:ext cx="3665220" cy="2156012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="285527" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="10568940"/>
+          <a:ext cx="285527" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>Ａ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="294889" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912620" y="11026140"/>
+          <a:ext cx="294889" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>Ｂ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="289888" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2697480" y="11330940"/>
+          <a:ext cx="289888" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>Ｃ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3090,15 +4093,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>154641</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3121,8 +4124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="777240"/>
-          <a:ext cx="3954780" cy="2326341"/>
+          <a:off x="609599" y="617220"/>
+          <a:ext cx="4876799" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3131,109 +4134,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>341483</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1920240" y="2171700"/>
-          <a:ext cx="2941320" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1203960" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4869180" y="2042160"/>
-          <a:ext cx="1203960" cy="275717"/>
+          <a:off x="624840" y="4625340"/>
+          <a:ext cx="2764643" cy="1173480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリックしたキャラ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>578160</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>98044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="891540" y="6530340"/>
+          <a:ext cx="3344220" cy="1881124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601020</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>75184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="9189720"/>
+          <a:ext cx="3344220" cy="1881124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608640</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>90424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="922020" y="12557760"/>
+          <a:ext cx="3344220" cy="1881124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37140</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>113284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="960120" y="15933420"/>
+          <a:ext cx="3344220" cy="1881124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29520</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>113284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="18280380"/>
+          <a:ext cx="3344220" cy="1881124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3900,10 +5064,10 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="2" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.2"/>
-    <row r="4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.2"/>
+    <row r="2" s="1" customFormat="1" ht="14.4"/>
+    <row r="4" s="1" customFormat="1" ht="14.4"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3917,47 +5081,47 @@
   <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -3971,188 +5135,383 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="21">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="B49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="B50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="B51" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="B52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="B70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="B71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="B72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="B73" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+    <row r="104" spans="1:4">
+      <c r="B104" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="105" spans="1:4">
+      <c r="B105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
+    <row r="106" spans="1:4">
+      <c r="B106" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="3" t="s">
+    <row r="107" spans="1:4">
+      <c r="B107" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="108" spans="1:4">
+      <c r="B108" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="111" spans="1:4" ht="16.2">
+      <c r="A111" t="s">
         <v>38</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+      <c r="D111" s="4"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
         <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K51:O51"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="K51:L51" location="基本仕様!A55" display="→詳細はこちら"/>
+    <hyperlink ref="K51:O51" location="基本仕様!A76" display="→クリック出来るキャラ出来ないキャラ詳細はこちら"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="C74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="C92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="C93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4163,119 +5522,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="21">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4287,67 +5589,72 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21">
       <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4359,13 +5666,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="5">
         <v>42454</v>
       </c>
@@ -4373,28 +5680,77 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
+        <v>42458</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>42460</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
+        <v>42461</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B8" location="ステージ仕様!A1" display="ステージ仕様にゲーム開始時の残り回数を追加"/>
+    <hyperlink ref="B8:F8" location="ステージ仕様!B26" display="ステージ仕様にゲーム開始時の残り回数を追加"/>
+    <hyperlink ref="B10:F10" location="基本仕様!A76" display="基本仕様にキャラのクリックの可否の条件を追加"/>
+    <hyperlink ref="B11:C11" location="キャラ仕様!A3" display="キャラ仕様に追記"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="10044" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="10044" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="企画内容" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,16 @@
     <sheet name="基本仕様　" sheetId="9" r:id="rId4"/>
     <sheet name="噂が広がるパターン" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="ステージ仕様" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="更新箇所" sheetId="4" r:id="rId7"/>
+    <sheet name="ステージ仕様　" sheetId="10" r:id="rId7"/>
+    <sheet name="キャラ仕様 " sheetId="12" r:id="rId8"/>
+    <sheet name="更新箇所" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <t>◇画面仕様◇</t>
     <rPh sb="1" eb="3">
@@ -1945,6 +1947,161 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◇キャラ仕様◇</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○共通</t>
+    <rPh sb="1" eb="3">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>　　伝達されて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出た伝達された時用の吹き出しは消えない。</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・噂が伝達されたキャラは伝達された時用の吹き出しを出す。</t>
+    <rPh sb="2" eb="3">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・噂の伝達に特定の条件はない。</t>
+    <rPh sb="2" eb="3">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・噂が伝達されたキャラも同じように噂を流す。</t>
+    <rPh sb="2" eb="3">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・移動せずにその場で静止しているキャラは指定が無い限り手前側に顔を向けている状態にする。</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5666,6 +5823,72 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
